--- a/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
+++ b/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RSF_NYCTRS\Inputs_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53D0D74-91B8-4A79-B4D6-0CB9A7248A3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0276A6B-4338-463A-A634-ADBF588A7746}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="44" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="FundingPolicy" sheetId="6" r:id="rId4"/>
     <sheet name="Assumptions" sheetId="3" r:id="rId5"/>
     <sheet name="Init_amort" sheetId="18" r:id="rId6"/>
-    <sheet name="Init_unrecReturn" sheetId="27" r:id="rId7"/>
-    <sheet name="External_Fund" sheetId="19" r:id="rId8"/>
-    <sheet name="GASBcashflow" sheetId="39" r:id="rId9"/>
-    <sheet name="detective" sheetId="40" r:id="rId10"/>
+    <sheet name="Init_amort_old" sheetId="45" r:id="rId7"/>
+    <sheet name="Init_unrecReturn" sheetId="27" r:id="rId8"/>
+    <sheet name="External_Fund" sheetId="19" r:id="rId9"/>
+    <sheet name="GASBcashflow" sheetId="39" r:id="rId10"/>
+    <sheet name="detective" sheetId="40" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>Notes</t>
   </si>
@@ -379,18 +381,25 @@
   <si>
     <t>D10</t>
   </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -536,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,9 +626,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -635,7 +644,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -671,7 +680,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,6 +742,9 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4559,6 +4571,2707 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A2:M107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2017</v>
+      </c>
+      <c r="C8">
+        <v>64246524</v>
+      </c>
+      <c r="D8">
+        <v>856926</v>
+      </c>
+      <c r="E8">
+        <v>1449303</v>
+      </c>
+      <c r="F8">
+        <v>4738254</v>
+      </c>
+      <c r="G8">
+        <v>14787</v>
+      </c>
+      <c r="H8">
+        <v>4539195</v>
+      </c>
+      <c r="I8">
+        <v>66338907</v>
+      </c>
+      <c r="L8" s="62">
+        <f>NPV(0.072, F8:F107)</f>
+        <v>83139485.788558051</v>
+      </c>
+      <c r="M8" s="62">
+        <f>NPV(0.072, F8:F37)</f>
+        <v>74251680.413010761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>66338907</v>
+      </c>
+      <c r="D9">
+        <v>810812</v>
+      </c>
+      <c r="E9">
+        <v>1609956</v>
+      </c>
+      <c r="F9">
+        <v>4865354</v>
+      </c>
+      <c r="G9">
+        <v>13992</v>
+      </c>
+      <c r="H9">
+        <v>4689432</v>
+      </c>
+      <c r="I9">
+        <v>68569761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10">
+        <v>68569761</v>
+      </c>
+      <c r="D10">
+        <v>771685</v>
+      </c>
+      <c r="E10">
+        <v>1759570</v>
+      </c>
+      <c r="F10">
+        <v>4992344</v>
+      </c>
+      <c r="G10">
+        <v>13316</v>
+      </c>
+      <c r="H10">
+        <v>4849492</v>
+      </c>
+      <c r="I10">
+        <v>70944848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11">
+        <v>70944848</v>
+      </c>
+      <c r="D11">
+        <v>736409</v>
+      </c>
+      <c r="E11">
+        <v>1870208</v>
+      </c>
+      <c r="F11">
+        <v>5119242</v>
+      </c>
+      <c r="G11">
+        <v>12708</v>
+      </c>
+      <c r="H11">
+        <v>5018697</v>
+      </c>
+      <c r="I11">
+        <v>73438212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12">
+        <v>73438212</v>
+      </c>
+      <c r="D12">
+        <v>704296</v>
+      </c>
+      <c r="E12">
+        <v>1984732</v>
+      </c>
+      <c r="F12">
+        <v>5250282</v>
+      </c>
+      <c r="G12">
+        <v>12153</v>
+      </c>
+      <c r="H12">
+        <v>5195301</v>
+      </c>
+      <c r="I12">
+        <v>76060106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>76060106</v>
+      </c>
+      <c r="D13">
+        <v>673805</v>
+      </c>
+      <c r="E13">
+        <v>1770527</v>
+      </c>
+      <c r="F13">
+        <v>5396304</v>
+      </c>
+      <c r="G13">
+        <v>11627</v>
+      </c>
+      <c r="H13">
+        <v>5371401</v>
+      </c>
+      <c r="I13">
+        <v>78467908</v>
+      </c>
+      <c r="L13" s="62">
+        <f>NPV(0.072, 0, , 0, 1)</f>
+        <v>0.75721787698560283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>78467908</v>
+      </c>
+      <c r="D14">
+        <v>643801</v>
+      </c>
+      <c r="E14">
+        <v>1564081</v>
+      </c>
+      <c r="F14">
+        <v>5556808</v>
+      </c>
+      <c r="G14">
+        <v>11110</v>
+      </c>
+      <c r="H14">
+        <v>5533725</v>
+      </c>
+      <c r="I14">
+        <v>80641597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="C15">
+        <v>80641597</v>
+      </c>
+      <c r="D15">
+        <v>613542</v>
+      </c>
+      <c r="E15">
+        <v>1600389</v>
+      </c>
+      <c r="F15">
+        <v>5721011</v>
+      </c>
+      <c r="G15">
+        <v>10587</v>
+      </c>
+      <c r="H15">
+        <v>5681793</v>
+      </c>
+      <c r="I15">
+        <v>82805723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>82805723</v>
+      </c>
+      <c r="D16">
+        <v>583350</v>
+      </c>
+      <c r="E16">
+        <v>1526758</v>
+      </c>
+      <c r="F16">
+        <v>5887458</v>
+      </c>
+      <c r="G16">
+        <v>10066</v>
+      </c>
+      <c r="H16">
+        <v>5828841</v>
+      </c>
+      <c r="I16">
+        <v>84847148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2026</v>
+      </c>
+      <c r="C17">
+        <v>84847148</v>
+      </c>
+      <c r="D17">
+        <v>553083</v>
+      </c>
+      <c r="E17">
+        <v>1449429</v>
+      </c>
+      <c r="F17">
+        <v>6057237</v>
+      </c>
+      <c r="G17">
+        <v>9544</v>
+      </c>
+      <c r="H17">
+        <v>5965317</v>
+      </c>
+      <c r="I17">
+        <v>86748196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2027</v>
+      </c>
+      <c r="C18">
+        <v>86748196</v>
+      </c>
+      <c r="D18">
+        <v>522566</v>
+      </c>
+      <c r="E18">
+        <v>1426513</v>
+      </c>
+      <c r="F18">
+        <v>6227110</v>
+      </c>
+      <c r="G18">
+        <v>9018</v>
+      </c>
+      <c r="H18">
+        <v>6094082</v>
+      </c>
+      <c r="I18">
+        <v>88555229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2028</v>
+      </c>
+      <c r="C19">
+        <v>88555229</v>
+      </c>
+      <c r="D19">
+        <v>492259</v>
+      </c>
+      <c r="E19">
+        <v>1423273</v>
+      </c>
+      <c r="F19">
+        <v>6399281</v>
+      </c>
+      <c r="G19">
+        <v>8495</v>
+      </c>
+      <c r="H19">
+        <v>6216819</v>
+      </c>
+      <c r="I19">
+        <v>90279804</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2029</v>
+      </c>
+      <c r="C20">
+        <v>90279804</v>
+      </c>
+      <c r="D20">
+        <v>461933</v>
+      </c>
+      <c r="E20">
+        <v>1235929</v>
+      </c>
+      <c r="F20">
+        <v>6574432</v>
+      </c>
+      <c r="G20">
+        <v>7971</v>
+      </c>
+      <c r="H20">
+        <v>6330453</v>
+      </c>
+      <c r="I20">
+        <v>91725716</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2030</v>
+      </c>
+      <c r="C21">
+        <v>91725716</v>
+      </c>
+      <c r="D21">
+        <v>431545</v>
+      </c>
+      <c r="E21">
+        <v>908025</v>
+      </c>
+      <c r="F21">
+        <v>6749916</v>
+      </c>
+      <c r="G21">
+        <v>7447</v>
+      </c>
+      <c r="H21">
+        <v>6414822</v>
+      </c>
+      <c r="I21">
+        <v>92722745</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2031</v>
+      </c>
+      <c r="C22">
+        <v>92722745</v>
+      </c>
+      <c r="D22">
+        <v>401170</v>
+      </c>
+      <c r="E22">
+        <v>686977</v>
+      </c>
+      <c r="F22">
+        <v>6921617</v>
+      </c>
+      <c r="G22">
+        <v>6923</v>
+      </c>
+      <c r="H22">
+        <v>6470667</v>
+      </c>
+      <c r="I22">
+        <v>93353019</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2032</v>
+      </c>
+      <c r="C23">
+        <v>93353019</v>
+      </c>
+      <c r="D23">
+        <v>371149</v>
+      </c>
+      <c r="E23">
+        <v>519968</v>
+      </c>
+      <c r="F23">
+        <v>7086576</v>
+      </c>
+      <c r="G23">
+        <v>6405</v>
+      </c>
+      <c r="H23">
+        <v>6503311</v>
+      </c>
+      <c r="I23">
+        <v>93654466</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2033</v>
+      </c>
+      <c r="C24">
+        <v>93654466</v>
+      </c>
+      <c r="D24">
+        <v>341391</v>
+      </c>
+      <c r="E24">
+        <v>354433</v>
+      </c>
+      <c r="F24">
+        <v>7243830</v>
+      </c>
+      <c r="G24">
+        <v>5891</v>
+      </c>
+      <c r="H24">
+        <v>6512500</v>
+      </c>
+      <c r="I24">
+        <v>93613069</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2034</v>
+      </c>
+      <c r="C25">
+        <v>93613069</v>
+      </c>
+      <c r="D25">
+        <v>312174</v>
+      </c>
+      <c r="E25">
+        <v>257904</v>
+      </c>
+      <c r="F25">
+        <v>7391176</v>
+      </c>
+      <c r="G25">
+        <v>5387</v>
+      </c>
+      <c r="H25">
+        <v>6498750</v>
+      </c>
+      <c r="I25">
+        <v>93285334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2035</v>
+      </c>
+      <c r="C26">
+        <v>93285334</v>
+      </c>
+      <c r="D26">
+        <v>283911</v>
+      </c>
+      <c r="E26">
+        <v>235513</v>
+      </c>
+      <c r="F26">
+        <v>7529486</v>
+      </c>
+      <c r="G26">
+        <v>4899</v>
+      </c>
+      <c r="H26">
+        <v>6468327</v>
+      </c>
+      <c r="I26">
+        <v>92738700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2036</v>
+      </c>
+      <c r="C27">
+        <v>92738700</v>
+      </c>
+      <c r="D27">
+        <v>256398</v>
+      </c>
+      <c r="E27">
+        <v>204665</v>
+      </c>
+      <c r="F27">
+        <v>7654985</v>
+      </c>
+      <c r="G27">
+        <v>4424</v>
+      </c>
+      <c r="H27">
+        <v>6422807</v>
+      </c>
+      <c r="I27">
+        <v>91963161</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2037</v>
+      </c>
+      <c r="C28">
+        <v>91963161</v>
+      </c>
+      <c r="D28">
+        <v>229935</v>
+      </c>
+      <c r="E28">
+        <v>154801</v>
+      </c>
+      <c r="F28">
+        <v>7752828</v>
+      </c>
+      <c r="G28">
+        <v>3968</v>
+      </c>
+      <c r="H28">
+        <v>6360850</v>
+      </c>
+      <c r="I28">
+        <v>90951951</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2038</v>
+      </c>
+      <c r="C29">
+        <v>90951951</v>
+      </c>
+      <c r="D29">
+        <v>204476</v>
+      </c>
+      <c r="E29">
+        <v>121643</v>
+      </c>
+      <c r="F29">
+        <v>7815668</v>
+      </c>
+      <c r="G29">
+        <v>3528</v>
+      </c>
+      <c r="H29">
+        <v>6283478</v>
+      </c>
+      <c r="I29">
+        <v>89742352</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2039</v>
+      </c>
+      <c r="C30">
+        <v>89742352</v>
+      </c>
+      <c r="D30">
+        <v>181348</v>
+      </c>
+      <c r="E30">
+        <v>105615</v>
+      </c>
+      <c r="F30">
+        <v>7859004</v>
+      </c>
+      <c r="G30">
+        <v>3129</v>
+      </c>
+      <c r="H30">
+        <v>6193483</v>
+      </c>
+      <c r="I30">
+        <v>88360665</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2040</v>
+      </c>
+      <c r="C31">
+        <v>88360665</v>
+      </c>
+      <c r="D31">
+        <v>159596</v>
+      </c>
+      <c r="E31">
+        <v>90056</v>
+      </c>
+      <c r="F31">
+        <v>7890811</v>
+      </c>
+      <c r="G31">
+        <v>2754</v>
+      </c>
+      <c r="H31">
+        <v>6091570</v>
+      </c>
+      <c r="I31">
+        <v>86808322</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2041</v>
+      </c>
+      <c r="C32">
+        <v>86808322</v>
+      </c>
+      <c r="D32">
+        <v>138333</v>
+      </c>
+      <c r="E32">
+        <v>75287</v>
+      </c>
+      <c r="F32">
+        <v>7914373</v>
+      </c>
+      <c r="G32">
+        <v>2387</v>
+      </c>
+      <c r="H32">
+        <v>5977705</v>
+      </c>
+      <c r="I32">
+        <v>85082887</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2042</v>
+      </c>
+      <c r="C33">
+        <v>85082887</v>
+      </c>
+      <c r="D33">
+        <v>117752</v>
+      </c>
+      <c r="E33">
+        <v>61390</v>
+      </c>
+      <c r="F33">
+        <v>7928062</v>
+      </c>
+      <c r="G33">
+        <v>2032</v>
+      </c>
+      <c r="H33">
+        <v>5851784</v>
+      </c>
+      <c r="I33">
+        <v>83183719</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2043</v>
+      </c>
+      <c r="C34">
+        <v>83183719</v>
+      </c>
+      <c r="D34">
+        <v>97949</v>
+      </c>
+      <c r="E34">
+        <v>48826</v>
+      </c>
+      <c r="F34">
+        <v>7929845</v>
+      </c>
+      <c r="G34">
+        <v>1690</v>
+      </c>
+      <c r="H34">
+        <v>5713847</v>
+      </c>
+      <c r="I34">
+        <v>81112806</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2044</v>
+      </c>
+      <c r="C35">
+        <v>81112806</v>
+      </c>
+      <c r="D35">
+        <v>79502</v>
+      </c>
+      <c r="E35">
+        <v>37379</v>
+      </c>
+      <c r="F35">
+        <v>7915832</v>
+      </c>
+      <c r="G35">
+        <v>1372</v>
+      </c>
+      <c r="H35">
+        <v>5564191</v>
+      </c>
+      <c r="I35">
+        <v>78876674</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2045</v>
+      </c>
+      <c r="C36">
+        <v>78876674</v>
+      </c>
+      <c r="D36">
+        <v>62373</v>
+      </c>
+      <c r="E36">
+        <v>27182</v>
+      </c>
+      <c r="F36">
+        <v>7885867</v>
+      </c>
+      <c r="G36">
+        <v>1076</v>
+      </c>
+      <c r="H36">
+        <v>5403293</v>
+      </c>
+      <c r="I36">
+        <v>76482579</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2046</v>
+      </c>
+      <c r="C37">
+        <v>76482579</v>
+      </c>
+      <c r="D37">
+        <v>46716</v>
+      </c>
+      <c r="E37">
+        <v>18921</v>
+      </c>
+      <c r="F37">
+        <v>7834239</v>
+      </c>
+      <c r="G37">
+        <v>806</v>
+      </c>
+      <c r="H37">
+        <v>5231908</v>
+      </c>
+      <c r="I37">
+        <v>73945079</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2047</v>
+      </c>
+      <c r="C38">
+        <v>73945079</v>
+      </c>
+      <c r="D38">
+        <v>33563</v>
+      </c>
+      <c r="E38">
+        <v>13596</v>
+      </c>
+      <c r="F38">
+        <v>7748552</v>
+      </c>
+      <c r="G38">
+        <v>579</v>
+      </c>
+      <c r="H38">
+        <v>5051594</v>
+      </c>
+      <c r="I38">
+        <v>71294701</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2048</v>
+      </c>
+      <c r="C39">
+        <v>71294701</v>
+      </c>
+      <c r="D39">
+        <v>24446</v>
+      </c>
+      <c r="E39">
+        <v>9959</v>
+      </c>
+      <c r="F39">
+        <v>7629166</v>
+      </c>
+      <c r="G39">
+        <v>422</v>
+      </c>
+      <c r="H39">
+        <v>4864544</v>
+      </c>
+      <c r="I39">
+        <v>68564062</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2049</v>
+      </c>
+      <c r="C40">
+        <v>68564062</v>
+      </c>
+      <c r="D40">
+        <v>18115</v>
+      </c>
+      <c r="E40">
+        <v>7212</v>
+      </c>
+      <c r="F40">
+        <v>7487570</v>
+      </c>
+      <c r="G40">
+        <v>313</v>
+      </c>
+      <c r="H40">
+        <v>4672629</v>
+      </c>
+      <c r="I40">
+        <v>65774135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2050</v>
+      </c>
+      <c r="C41">
+        <v>65774135</v>
+      </c>
+      <c r="D41">
+        <v>13379</v>
+      </c>
+      <c r="E41">
+        <v>5193</v>
+      </c>
+      <c r="F41">
+        <v>7331399</v>
+      </c>
+      <c r="G41">
+        <v>231</v>
+      </c>
+      <c r="H41">
+        <v>4477044</v>
+      </c>
+      <c r="I41">
+        <v>62938121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2051</v>
+      </c>
+      <c r="C42">
+        <v>62938121</v>
+      </c>
+      <c r="D42">
+        <v>9845</v>
+      </c>
+      <c r="E42">
+        <v>3719</v>
+      </c>
+      <c r="F42">
+        <v>7159732</v>
+      </c>
+      <c r="G42">
+        <v>170</v>
+      </c>
+      <c r="H42">
+        <v>4278748</v>
+      </c>
+      <c r="I42">
+        <v>60070531</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2052</v>
+      </c>
+      <c r="C43">
+        <v>60070531</v>
+      </c>
+      <c r="D43">
+        <v>7212</v>
+      </c>
+      <c r="E43">
+        <v>2639</v>
+      </c>
+      <c r="F43">
+        <v>6973434</v>
+      </c>
+      <c r="G43">
+        <v>124</v>
+      </c>
+      <c r="H43">
+        <v>4078741</v>
+      </c>
+      <c r="I43">
+        <v>57185565</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2053</v>
+      </c>
+      <c r="C44">
+        <v>57185565</v>
+      </c>
+      <c r="D44">
+        <v>5257</v>
+      </c>
+      <c r="E44">
+        <v>1869</v>
+      </c>
+      <c r="F44">
+        <v>6772800</v>
+      </c>
+      <c r="G44">
+        <v>91</v>
+      </c>
+      <c r="H44">
+        <v>3878027</v>
+      </c>
+      <c r="I44">
+        <v>54297827</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2054</v>
+      </c>
+      <c r="C45">
+        <v>54297827</v>
+      </c>
+      <c r="D45">
+        <v>3820</v>
+      </c>
+      <c r="E45">
+        <v>1318</v>
+      </c>
+      <c r="F45">
+        <v>6557932</v>
+      </c>
+      <c r="G45">
+        <v>66</v>
+      </c>
+      <c r="H45">
+        <v>3677639</v>
+      </c>
+      <c r="I45">
+        <v>51422606</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2055</v>
+      </c>
+      <c r="C46">
+        <v>51422606</v>
+      </c>
+      <c r="D46">
+        <v>2768</v>
+      </c>
+      <c r="E46">
+        <v>914</v>
+      </c>
+      <c r="F46">
+        <v>6327421</v>
+      </c>
+      <c r="G46">
+        <v>48</v>
+      </c>
+      <c r="H46">
+        <v>3478728</v>
+      </c>
+      <c r="I46">
+        <v>48577547</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2056</v>
+      </c>
+      <c r="C47">
+        <v>48577547</v>
+      </c>
+      <c r="D47">
+        <v>1996</v>
+      </c>
+      <c r="E47">
+        <v>638</v>
+      </c>
+      <c r="F47">
+        <v>6090310</v>
+      </c>
+      <c r="G47">
+        <v>34</v>
+      </c>
+      <c r="H47">
+        <v>3282235</v>
+      </c>
+      <c r="I47">
+        <v>45772072</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2057</v>
+      </c>
+      <c r="C48">
+        <v>45772072</v>
+      </c>
+      <c r="D48">
+        <v>1439</v>
+      </c>
+      <c r="E48">
+        <v>439</v>
+      </c>
+      <c r="F48">
+        <v>5661419</v>
+      </c>
+      <c r="G48">
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <v>3095386</v>
+      </c>
+      <c r="I48">
+        <v>43207892</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2058</v>
+      </c>
+      <c r="C49">
+        <v>43207892</v>
+      </c>
+      <c r="D49">
+        <v>1036</v>
+      </c>
+      <c r="E49">
+        <v>296</v>
+      </c>
+      <c r="F49">
+        <v>5429344</v>
+      </c>
+      <c r="G49">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>2918956</v>
+      </c>
+      <c r="I49">
+        <v>40698818</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2059</v>
+      </c>
+      <c r="C50">
+        <v>40698818</v>
+      </c>
+      <c r="D50">
+        <v>740</v>
+      </c>
+      <c r="E50">
+        <v>201</v>
+      </c>
+      <c r="F50">
+        <v>5197407</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>2746493</v>
+      </c>
+      <c r="I50">
+        <v>38248832</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2060</v>
+      </c>
+      <c r="C51">
+        <v>38248832</v>
+      </c>
+      <c r="D51">
+        <v>526</v>
+      </c>
+      <c r="E51">
+        <v>129</v>
+      </c>
+      <c r="F51">
+        <v>4966278</v>
+      </c>
+      <c r="G51">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>2578260</v>
+      </c>
+      <c r="I51">
+        <v>35861460</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2061</v>
+      </c>
+      <c r="C52">
+        <v>35861460</v>
+      </c>
+      <c r="D52">
+        <v>369</v>
+      </c>
+      <c r="E52">
+        <v>80</v>
+      </c>
+      <c r="F52">
+        <v>4736310</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>2414497</v>
+      </c>
+      <c r="I52">
+        <v>33540090</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2062</v>
+      </c>
+      <c r="C53">
+        <v>33540090</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53">
+        <v>4507910</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>2255433</v>
+      </c>
+      <c r="I53">
+        <v>31287910</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2063</v>
+      </c>
+      <c r="C54">
+        <v>31287910</v>
+      </c>
+      <c r="D54">
+        <v>172</v>
+      </c>
+      <c r="E54">
+        <v>26</v>
+      </c>
+      <c r="F54">
+        <v>4281455</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>2101283</v>
+      </c>
+      <c r="I54">
+        <v>29107933</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2064</v>
+      </c>
+      <c r="C55">
+        <v>29107933</v>
+      </c>
+      <c r="D55">
+        <v>114</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>4057342</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1952249</v>
+      </c>
+      <c r="I55">
+        <v>27002962</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2065</v>
+      </c>
+      <c r="C56">
+        <v>27002962</v>
+      </c>
+      <c r="D56">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>3835943</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1808522</v>
+      </c>
+      <c r="I56">
+        <v>24975614</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2066</v>
+      </c>
+      <c r="C57">
+        <v>24975614</v>
+      </c>
+      <c r="D57">
+        <v>39</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>3617634</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1670275</v>
+      </c>
+      <c r="I57">
+        <v>23028295</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2067</v>
+      </c>
+      <c r="C58">
+        <v>23028295</v>
+      </c>
+      <c r="D58">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>3402812</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1537665</v>
+      </c>
+      <c r="I58">
+        <v>21163168</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2068</v>
+      </c>
+      <c r="C59">
+        <v>21163168</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>3191883</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1410839</v>
+      </c>
+      <c r="I59">
+        <v>19382132</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2069</v>
+      </c>
+      <c r="C60">
+        <v>19382132</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2985286</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1289910</v>
+      </c>
+      <c r="I60">
+        <v>17686759</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>2070</v>
+      </c>
+      <c r="C61">
+        <v>17686759</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2783505</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1174982</v>
+      </c>
+      <c r="I61">
+        <v>16078237</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2071</v>
+      </c>
+      <c r="C62">
+        <v>16078237</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2587034</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1066119</v>
+      </c>
+      <c r="I62">
+        <v>14557322</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2072</v>
+      </c>
+      <c r="C63">
+        <v>14557322</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2396330</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>963359</v>
+      </c>
+      <c r="I63">
+        <v>13124351</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>2073</v>
+      </c>
+      <c r="C64">
+        <v>13124351</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2211827</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>866712</v>
+      </c>
+      <c r="I64">
+        <v>11779236</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>2074</v>
+      </c>
+      <c r="C65">
+        <v>11779236</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2033902</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>776157</v>
+      </c>
+      <c r="I65">
+        <v>10521491</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2075</v>
+      </c>
+      <c r="C66">
+        <v>10521491</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1862866</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>691649</v>
+      </c>
+      <c r="I66">
+        <v>9350274</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2076</v>
+      </c>
+      <c r="C67">
+        <v>9350274</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1698979</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>613120</v>
+      </c>
+      <c r="I67">
+        <v>8264415</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2077</v>
+      </c>
+      <c r="C68">
+        <v>8264415</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1542465</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>540475</v>
+      </c>
+      <c r="I68">
+        <v>7262425</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>2078</v>
+      </c>
+      <c r="C69">
+        <v>7262425</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1393523</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>473599</v>
+      </c>
+      <c r="I69">
+        <v>6342501</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>2079</v>
+      </c>
+      <c r="C70">
+        <v>6342501</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1252331</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>412360</v>
+      </c>
+      <c r="I70">
+        <v>5502530</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2080</v>
+      </c>
+      <c r="C71">
+        <v>5502530</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1119051</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>356596</v>
+      </c>
+      <c r="I71">
+        <v>4740075</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>2081</v>
+      </c>
+      <c r="C72">
+        <v>4740075</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>993828</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>306130</v>
+      </c>
+      <c r="I72">
+        <v>4052377</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>2082</v>
+      </c>
+      <c r="C73">
+        <v>4052377</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>876785</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>260755</v>
+      </c>
+      <c r="I73">
+        <v>3436347</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2083</v>
+      </c>
+      <c r="C74">
+        <v>3436347</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>768011</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>220248</v>
+      </c>
+      <c r="I74">
+        <v>2888584</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2084</v>
+      </c>
+      <c r="C75">
+        <v>2888584</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>667549</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>184365</v>
+      </c>
+      <c r="I75">
+        <v>2405400</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>2085</v>
+      </c>
+      <c r="C76">
+        <v>2405400</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>575388</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>152835</v>
+      </c>
+      <c r="I76">
+        <v>1982847</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2086</v>
+      </c>
+      <c r="C77">
+        <v>1982847</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>491460</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>125380</v>
+      </c>
+      <c r="I77">
+        <v>1616767</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2087</v>
+      </c>
+      <c r="C78">
+        <v>1616767</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>415631</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>101704</v>
+      </c>
+      <c r="I78">
+        <v>1302840</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2088</v>
+      </c>
+      <c r="C79">
+        <v>1302840</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>347713</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>81505</v>
+      </c>
+      <c r="I79">
+        <v>1036632</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>2089</v>
+      </c>
+      <c r="C80">
+        <v>1036632</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>287463</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>64468</v>
+      </c>
+      <c r="I80">
+        <v>813637</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>2090</v>
+      </c>
+      <c r="C81">
+        <v>813637</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>234591</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>50284</v>
+      </c>
+      <c r="I81">
+        <v>629330</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2091</v>
+      </c>
+      <c r="C82">
+        <v>629330</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>188761</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>38635</v>
+      </c>
+      <c r="I82">
+        <v>479204</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2092</v>
+      </c>
+      <c r="C83">
+        <v>479204</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>149584</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>29211</v>
+      </c>
+      <c r="I83">
+        <v>358831</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>2093</v>
+      </c>
+      <c r="C84">
+        <v>358831</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>116604</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>21710</v>
+      </c>
+      <c r="I84">
+        <v>263937</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2094</v>
+      </c>
+      <c r="C85">
+        <v>263937</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>89306</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>15845</v>
+      </c>
+      <c r="I85">
+        <v>190476</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2095</v>
+      </c>
+      <c r="C86">
+        <v>190476</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>67114</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>11340</v>
+      </c>
+      <c r="I86">
+        <v>134702</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2096</v>
+      </c>
+      <c r="C87">
+        <v>134702</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>49422</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>7950</v>
+      </c>
+      <c r="I87">
+        <v>93230</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2097</v>
+      </c>
+      <c r="C88">
+        <v>93230</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>35612</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>5453</v>
+      </c>
+      <c r="I88">
+        <v>63071</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2098</v>
+      </c>
+      <c r="C89">
+        <v>63071</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>25073</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>3654</v>
+      </c>
+      <c r="I89">
+        <v>41652</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2099</v>
+      </c>
+      <c r="C90">
+        <v>41652</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>17223</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>2390</v>
+      </c>
+      <c r="I90">
+        <v>26819</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>2100</v>
+      </c>
+      <c r="C91">
+        <v>26819</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>11524</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1523</v>
+      </c>
+      <c r="I91">
+        <v>16818</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2101</v>
+      </c>
+      <c r="C92">
+        <v>16818</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>7501</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>946</v>
+      </c>
+      <c r="I92">
+        <v>10263</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2102</v>
+      </c>
+      <c r="C93">
+        <v>10263</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>4744</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>571</v>
+      </c>
+      <c r="I93">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>2103</v>
+      </c>
+      <c r="C94">
+        <v>6090</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>2912</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>336</v>
+      </c>
+      <c r="I94">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>2104</v>
+      </c>
+      <c r="C95">
+        <v>3514</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1733</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>191</v>
+      </c>
+      <c r="I95">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>2105</v>
+      </c>
+      <c r="C96">
+        <v>1972</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1001</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>107</v>
+      </c>
+      <c r="I96">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2106</v>
+      </c>
+      <c r="C97">
+        <v>1078</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>561</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>58</v>
+      </c>
+      <c r="I97">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2107</v>
+      </c>
+      <c r="C98">
+        <v>575</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>306</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>30</v>
+      </c>
+      <c r="I98">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>2108</v>
+      </c>
+      <c r="C99">
+        <v>299</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>163</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>16</v>
+      </c>
+      <c r="I99">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>2109</v>
+      </c>
+      <c r="C100">
+        <v>152</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>85</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>2110</v>
+      </c>
+      <c r="C101">
+        <v>75</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>43</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>2111</v>
+      </c>
+      <c r="C102">
+        <v>36</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>21</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2112</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>2113</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>2114</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>2115</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>2116</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4929,8 +7642,273 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O22"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="15" width="27.28515625" customWidth="1"/>
+    <col min="16" max="19" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77">
+        <v>2012</v>
+      </c>
+      <c r="F8" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="59">
+        <v>21</v>
+      </c>
+      <c r="H8" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="59">
+        <v>18</v>
+      </c>
+      <c r="J8" s="80">
+        <v>0</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="77">
+        <v>2013</v>
+      </c>
+      <c r="F9" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="G9" s="59">
+        <v>14</v>
+      </c>
+      <c r="H9" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="I9" s="59">
+        <v>12</v>
+      </c>
+      <c r="J9" s="80">
+        <v>0</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="52"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="77">
+        <v>2014</v>
+      </c>
+      <c r="F10" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="59">
+        <v>14</v>
+      </c>
+      <c r="H10" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="I10" s="59">
+        <v>13</v>
+      </c>
+      <c r="J10" s="80">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L17" s="44"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+    </row>
+    <row r="18" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L18" s="44"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+    </row>
+    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L19" s="44"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
+    </row>
+    <row r="20" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="44"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+    </row>
+    <row r="21" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L21" s="44"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+    </row>
+    <row r="22" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L22" s="44"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A67761C-2B4D-4952-B770-B1A990EAC888}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5152,18 +8130,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{C0763C61-078C-4527-9398-F1D812256B58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5343,7 +8321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1"/>
@@ -5360,2705 +8338,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A2:M107"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2017</v>
-      </c>
-      <c r="C8">
-        <v>64246524</v>
-      </c>
-      <c r="D8">
-        <v>856926</v>
-      </c>
-      <c r="E8">
-        <v>1449303</v>
-      </c>
-      <c r="F8">
-        <v>4738254</v>
-      </c>
-      <c r="G8">
-        <v>14787</v>
-      </c>
-      <c r="H8">
-        <v>4539195</v>
-      </c>
-      <c r="I8">
-        <v>66338907</v>
-      </c>
-      <c r="L8" s="62">
-        <f>NPV(0.072, F8:F107)</f>
-        <v>83139485.788558051</v>
-      </c>
-      <c r="M8" s="62">
-        <f>NPV(0.072, F8:F37)</f>
-        <v>74251680.413010761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>2018</v>
-      </c>
-      <c r="C9">
-        <v>66338907</v>
-      </c>
-      <c r="D9">
-        <v>810812</v>
-      </c>
-      <c r="E9">
-        <v>1609956</v>
-      </c>
-      <c r="F9">
-        <v>4865354</v>
-      </c>
-      <c r="G9">
-        <v>13992</v>
-      </c>
-      <c r="H9">
-        <v>4689432</v>
-      </c>
-      <c r="I9">
-        <v>68569761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>2019</v>
-      </c>
-      <c r="C10">
-        <v>68569761</v>
-      </c>
-      <c r="D10">
-        <v>771685</v>
-      </c>
-      <c r="E10">
-        <v>1759570</v>
-      </c>
-      <c r="F10">
-        <v>4992344</v>
-      </c>
-      <c r="G10">
-        <v>13316</v>
-      </c>
-      <c r="H10">
-        <v>4849492</v>
-      </c>
-      <c r="I10">
-        <v>70944848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2020</v>
-      </c>
-      <c r="C11">
-        <v>70944848</v>
-      </c>
-      <c r="D11">
-        <v>736409</v>
-      </c>
-      <c r="E11">
-        <v>1870208</v>
-      </c>
-      <c r="F11">
-        <v>5119242</v>
-      </c>
-      <c r="G11">
-        <v>12708</v>
-      </c>
-      <c r="H11">
-        <v>5018697</v>
-      </c>
-      <c r="I11">
-        <v>73438212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="C12">
-        <v>73438212</v>
-      </c>
-      <c r="D12">
-        <v>704296</v>
-      </c>
-      <c r="E12">
-        <v>1984732</v>
-      </c>
-      <c r="F12">
-        <v>5250282</v>
-      </c>
-      <c r="G12">
-        <v>12153</v>
-      </c>
-      <c r="H12">
-        <v>5195301</v>
-      </c>
-      <c r="I12">
-        <v>76060106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2022</v>
-      </c>
-      <c r="C13">
-        <v>76060106</v>
-      </c>
-      <c r="D13">
-        <v>673805</v>
-      </c>
-      <c r="E13">
-        <v>1770527</v>
-      </c>
-      <c r="F13">
-        <v>5396304</v>
-      </c>
-      <c r="G13">
-        <v>11627</v>
-      </c>
-      <c r="H13">
-        <v>5371401</v>
-      </c>
-      <c r="I13">
-        <v>78467908</v>
-      </c>
-      <c r="L13" s="62">
-        <f>NPV(0.072, 0, , 0, 1)</f>
-        <v>0.75721787698560283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2023</v>
-      </c>
-      <c r="C14">
-        <v>78467908</v>
-      </c>
-      <c r="D14">
-        <v>643801</v>
-      </c>
-      <c r="E14">
-        <v>1564081</v>
-      </c>
-      <c r="F14">
-        <v>5556808</v>
-      </c>
-      <c r="G14">
-        <v>11110</v>
-      </c>
-      <c r="H14">
-        <v>5533725</v>
-      </c>
-      <c r="I14">
-        <v>80641597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2024</v>
-      </c>
-      <c r="C15">
-        <v>80641597</v>
-      </c>
-      <c r="D15">
-        <v>613542</v>
-      </c>
-      <c r="E15">
-        <v>1600389</v>
-      </c>
-      <c r="F15">
-        <v>5721011</v>
-      </c>
-      <c r="G15">
-        <v>10587</v>
-      </c>
-      <c r="H15">
-        <v>5681793</v>
-      </c>
-      <c r="I15">
-        <v>82805723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2025</v>
-      </c>
-      <c r="C16">
-        <v>82805723</v>
-      </c>
-      <c r="D16">
-        <v>583350</v>
-      </c>
-      <c r="E16">
-        <v>1526758</v>
-      </c>
-      <c r="F16">
-        <v>5887458</v>
-      </c>
-      <c r="G16">
-        <v>10066</v>
-      </c>
-      <c r="H16">
-        <v>5828841</v>
-      </c>
-      <c r="I16">
-        <v>84847148</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>2026</v>
-      </c>
-      <c r="C17">
-        <v>84847148</v>
-      </c>
-      <c r="D17">
-        <v>553083</v>
-      </c>
-      <c r="E17">
-        <v>1449429</v>
-      </c>
-      <c r="F17">
-        <v>6057237</v>
-      </c>
-      <c r="G17">
-        <v>9544</v>
-      </c>
-      <c r="H17">
-        <v>5965317</v>
-      </c>
-      <c r="I17">
-        <v>86748196</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2027</v>
-      </c>
-      <c r="C18">
-        <v>86748196</v>
-      </c>
-      <c r="D18">
-        <v>522566</v>
-      </c>
-      <c r="E18">
-        <v>1426513</v>
-      </c>
-      <c r="F18">
-        <v>6227110</v>
-      </c>
-      <c r="G18">
-        <v>9018</v>
-      </c>
-      <c r="H18">
-        <v>6094082</v>
-      </c>
-      <c r="I18">
-        <v>88555229</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2028</v>
-      </c>
-      <c r="C19">
-        <v>88555229</v>
-      </c>
-      <c r="D19">
-        <v>492259</v>
-      </c>
-      <c r="E19">
-        <v>1423273</v>
-      </c>
-      <c r="F19">
-        <v>6399281</v>
-      </c>
-      <c r="G19">
-        <v>8495</v>
-      </c>
-      <c r="H19">
-        <v>6216819</v>
-      </c>
-      <c r="I19">
-        <v>90279804</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2029</v>
-      </c>
-      <c r="C20">
-        <v>90279804</v>
-      </c>
-      <c r="D20">
-        <v>461933</v>
-      </c>
-      <c r="E20">
-        <v>1235929</v>
-      </c>
-      <c r="F20">
-        <v>6574432</v>
-      </c>
-      <c r="G20">
-        <v>7971</v>
-      </c>
-      <c r="H20">
-        <v>6330453</v>
-      </c>
-      <c r="I20">
-        <v>91725716</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2030</v>
-      </c>
-      <c r="C21">
-        <v>91725716</v>
-      </c>
-      <c r="D21">
-        <v>431545</v>
-      </c>
-      <c r="E21">
-        <v>908025</v>
-      </c>
-      <c r="F21">
-        <v>6749916</v>
-      </c>
-      <c r="G21">
-        <v>7447</v>
-      </c>
-      <c r="H21">
-        <v>6414822</v>
-      </c>
-      <c r="I21">
-        <v>92722745</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2031</v>
-      </c>
-      <c r="C22">
-        <v>92722745</v>
-      </c>
-      <c r="D22">
-        <v>401170</v>
-      </c>
-      <c r="E22">
-        <v>686977</v>
-      </c>
-      <c r="F22">
-        <v>6921617</v>
-      </c>
-      <c r="G22">
-        <v>6923</v>
-      </c>
-      <c r="H22">
-        <v>6470667</v>
-      </c>
-      <c r="I22">
-        <v>93353019</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2032</v>
-      </c>
-      <c r="C23">
-        <v>93353019</v>
-      </c>
-      <c r="D23">
-        <v>371149</v>
-      </c>
-      <c r="E23">
-        <v>519968</v>
-      </c>
-      <c r="F23">
-        <v>7086576</v>
-      </c>
-      <c r="G23">
-        <v>6405</v>
-      </c>
-      <c r="H23">
-        <v>6503311</v>
-      </c>
-      <c r="I23">
-        <v>93654466</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2033</v>
-      </c>
-      <c r="C24">
-        <v>93654466</v>
-      </c>
-      <c r="D24">
-        <v>341391</v>
-      </c>
-      <c r="E24">
-        <v>354433</v>
-      </c>
-      <c r="F24">
-        <v>7243830</v>
-      </c>
-      <c r="G24">
-        <v>5891</v>
-      </c>
-      <c r="H24">
-        <v>6512500</v>
-      </c>
-      <c r="I24">
-        <v>93613069</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2034</v>
-      </c>
-      <c r="C25">
-        <v>93613069</v>
-      </c>
-      <c r="D25">
-        <v>312174</v>
-      </c>
-      <c r="E25">
-        <v>257904</v>
-      </c>
-      <c r="F25">
-        <v>7391176</v>
-      </c>
-      <c r="G25">
-        <v>5387</v>
-      </c>
-      <c r="H25">
-        <v>6498750</v>
-      </c>
-      <c r="I25">
-        <v>93285334</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2035</v>
-      </c>
-      <c r="C26">
-        <v>93285334</v>
-      </c>
-      <c r="D26">
-        <v>283911</v>
-      </c>
-      <c r="E26">
-        <v>235513</v>
-      </c>
-      <c r="F26">
-        <v>7529486</v>
-      </c>
-      <c r="G26">
-        <v>4899</v>
-      </c>
-      <c r="H26">
-        <v>6468327</v>
-      </c>
-      <c r="I26">
-        <v>92738700</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2036</v>
-      </c>
-      <c r="C27">
-        <v>92738700</v>
-      </c>
-      <c r="D27">
-        <v>256398</v>
-      </c>
-      <c r="E27">
-        <v>204665</v>
-      </c>
-      <c r="F27">
-        <v>7654985</v>
-      </c>
-      <c r="G27">
-        <v>4424</v>
-      </c>
-      <c r="H27">
-        <v>6422807</v>
-      </c>
-      <c r="I27">
-        <v>91963161</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>2037</v>
-      </c>
-      <c r="C28">
-        <v>91963161</v>
-      </c>
-      <c r="D28">
-        <v>229935</v>
-      </c>
-      <c r="E28">
-        <v>154801</v>
-      </c>
-      <c r="F28">
-        <v>7752828</v>
-      </c>
-      <c r="G28">
-        <v>3968</v>
-      </c>
-      <c r="H28">
-        <v>6360850</v>
-      </c>
-      <c r="I28">
-        <v>90951951</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>2038</v>
-      </c>
-      <c r="C29">
-        <v>90951951</v>
-      </c>
-      <c r="D29">
-        <v>204476</v>
-      </c>
-      <c r="E29">
-        <v>121643</v>
-      </c>
-      <c r="F29">
-        <v>7815668</v>
-      </c>
-      <c r="G29">
-        <v>3528</v>
-      </c>
-      <c r="H29">
-        <v>6283478</v>
-      </c>
-      <c r="I29">
-        <v>89742352</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>2039</v>
-      </c>
-      <c r="C30">
-        <v>89742352</v>
-      </c>
-      <c r="D30">
-        <v>181348</v>
-      </c>
-      <c r="E30">
-        <v>105615</v>
-      </c>
-      <c r="F30">
-        <v>7859004</v>
-      </c>
-      <c r="G30">
-        <v>3129</v>
-      </c>
-      <c r="H30">
-        <v>6193483</v>
-      </c>
-      <c r="I30">
-        <v>88360665</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>2040</v>
-      </c>
-      <c r="C31">
-        <v>88360665</v>
-      </c>
-      <c r="D31">
-        <v>159596</v>
-      </c>
-      <c r="E31">
-        <v>90056</v>
-      </c>
-      <c r="F31">
-        <v>7890811</v>
-      </c>
-      <c r="G31">
-        <v>2754</v>
-      </c>
-      <c r="H31">
-        <v>6091570</v>
-      </c>
-      <c r="I31">
-        <v>86808322</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2041</v>
-      </c>
-      <c r="C32">
-        <v>86808322</v>
-      </c>
-      <c r="D32">
-        <v>138333</v>
-      </c>
-      <c r="E32">
-        <v>75287</v>
-      </c>
-      <c r="F32">
-        <v>7914373</v>
-      </c>
-      <c r="G32">
-        <v>2387</v>
-      </c>
-      <c r="H32">
-        <v>5977705</v>
-      </c>
-      <c r="I32">
-        <v>85082887</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>2042</v>
-      </c>
-      <c r="C33">
-        <v>85082887</v>
-      </c>
-      <c r="D33">
-        <v>117752</v>
-      </c>
-      <c r="E33">
-        <v>61390</v>
-      </c>
-      <c r="F33">
-        <v>7928062</v>
-      </c>
-      <c r="G33">
-        <v>2032</v>
-      </c>
-      <c r="H33">
-        <v>5851784</v>
-      </c>
-      <c r="I33">
-        <v>83183719</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>2043</v>
-      </c>
-      <c r="C34">
-        <v>83183719</v>
-      </c>
-      <c r="D34">
-        <v>97949</v>
-      </c>
-      <c r="E34">
-        <v>48826</v>
-      </c>
-      <c r="F34">
-        <v>7929845</v>
-      </c>
-      <c r="G34">
-        <v>1690</v>
-      </c>
-      <c r="H34">
-        <v>5713847</v>
-      </c>
-      <c r="I34">
-        <v>81112806</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2044</v>
-      </c>
-      <c r="C35">
-        <v>81112806</v>
-      </c>
-      <c r="D35">
-        <v>79502</v>
-      </c>
-      <c r="E35">
-        <v>37379</v>
-      </c>
-      <c r="F35">
-        <v>7915832</v>
-      </c>
-      <c r="G35">
-        <v>1372</v>
-      </c>
-      <c r="H35">
-        <v>5564191</v>
-      </c>
-      <c r="I35">
-        <v>78876674</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2045</v>
-      </c>
-      <c r="C36">
-        <v>78876674</v>
-      </c>
-      <c r="D36">
-        <v>62373</v>
-      </c>
-      <c r="E36">
-        <v>27182</v>
-      </c>
-      <c r="F36">
-        <v>7885867</v>
-      </c>
-      <c r="G36">
-        <v>1076</v>
-      </c>
-      <c r="H36">
-        <v>5403293</v>
-      </c>
-      <c r="I36">
-        <v>76482579</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>2046</v>
-      </c>
-      <c r="C37">
-        <v>76482579</v>
-      </c>
-      <c r="D37">
-        <v>46716</v>
-      </c>
-      <c r="E37">
-        <v>18921</v>
-      </c>
-      <c r="F37">
-        <v>7834239</v>
-      </c>
-      <c r="G37">
-        <v>806</v>
-      </c>
-      <c r="H37">
-        <v>5231908</v>
-      </c>
-      <c r="I37">
-        <v>73945079</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>2047</v>
-      </c>
-      <c r="C38">
-        <v>73945079</v>
-      </c>
-      <c r="D38">
-        <v>33563</v>
-      </c>
-      <c r="E38">
-        <v>13596</v>
-      </c>
-      <c r="F38">
-        <v>7748552</v>
-      </c>
-      <c r="G38">
-        <v>579</v>
-      </c>
-      <c r="H38">
-        <v>5051594</v>
-      </c>
-      <c r="I38">
-        <v>71294701</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2048</v>
-      </c>
-      <c r="C39">
-        <v>71294701</v>
-      </c>
-      <c r="D39">
-        <v>24446</v>
-      </c>
-      <c r="E39">
-        <v>9959</v>
-      </c>
-      <c r="F39">
-        <v>7629166</v>
-      </c>
-      <c r="G39">
-        <v>422</v>
-      </c>
-      <c r="H39">
-        <v>4864544</v>
-      </c>
-      <c r="I39">
-        <v>68564062</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>2049</v>
-      </c>
-      <c r="C40">
-        <v>68564062</v>
-      </c>
-      <c r="D40">
-        <v>18115</v>
-      </c>
-      <c r="E40">
-        <v>7212</v>
-      </c>
-      <c r="F40">
-        <v>7487570</v>
-      </c>
-      <c r="G40">
-        <v>313</v>
-      </c>
-      <c r="H40">
-        <v>4672629</v>
-      </c>
-      <c r="I40">
-        <v>65774135</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>2050</v>
-      </c>
-      <c r="C41">
-        <v>65774135</v>
-      </c>
-      <c r="D41">
-        <v>13379</v>
-      </c>
-      <c r="E41">
-        <v>5193</v>
-      </c>
-      <c r="F41">
-        <v>7331399</v>
-      </c>
-      <c r="G41">
-        <v>231</v>
-      </c>
-      <c r="H41">
-        <v>4477044</v>
-      </c>
-      <c r="I41">
-        <v>62938121</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>2051</v>
-      </c>
-      <c r="C42">
-        <v>62938121</v>
-      </c>
-      <c r="D42">
-        <v>9845</v>
-      </c>
-      <c r="E42">
-        <v>3719</v>
-      </c>
-      <c r="F42">
-        <v>7159732</v>
-      </c>
-      <c r="G42">
-        <v>170</v>
-      </c>
-      <c r="H42">
-        <v>4278748</v>
-      </c>
-      <c r="I42">
-        <v>60070531</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>2052</v>
-      </c>
-      <c r="C43">
-        <v>60070531</v>
-      </c>
-      <c r="D43">
-        <v>7212</v>
-      </c>
-      <c r="E43">
-        <v>2639</v>
-      </c>
-      <c r="F43">
-        <v>6973434</v>
-      </c>
-      <c r="G43">
-        <v>124</v>
-      </c>
-      <c r="H43">
-        <v>4078741</v>
-      </c>
-      <c r="I43">
-        <v>57185565</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>2053</v>
-      </c>
-      <c r="C44">
-        <v>57185565</v>
-      </c>
-      <c r="D44">
-        <v>5257</v>
-      </c>
-      <c r="E44">
-        <v>1869</v>
-      </c>
-      <c r="F44">
-        <v>6772800</v>
-      </c>
-      <c r="G44">
-        <v>91</v>
-      </c>
-      <c r="H44">
-        <v>3878027</v>
-      </c>
-      <c r="I44">
-        <v>54297827</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2054</v>
-      </c>
-      <c r="C45">
-        <v>54297827</v>
-      </c>
-      <c r="D45">
-        <v>3820</v>
-      </c>
-      <c r="E45">
-        <v>1318</v>
-      </c>
-      <c r="F45">
-        <v>6557932</v>
-      </c>
-      <c r="G45">
-        <v>66</v>
-      </c>
-      <c r="H45">
-        <v>3677639</v>
-      </c>
-      <c r="I45">
-        <v>51422606</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>2055</v>
-      </c>
-      <c r="C46">
-        <v>51422606</v>
-      </c>
-      <c r="D46">
-        <v>2768</v>
-      </c>
-      <c r="E46">
-        <v>914</v>
-      </c>
-      <c r="F46">
-        <v>6327421</v>
-      </c>
-      <c r="G46">
-        <v>48</v>
-      </c>
-      <c r="H46">
-        <v>3478728</v>
-      </c>
-      <c r="I46">
-        <v>48577547</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>2056</v>
-      </c>
-      <c r="C47">
-        <v>48577547</v>
-      </c>
-      <c r="D47">
-        <v>1996</v>
-      </c>
-      <c r="E47">
-        <v>638</v>
-      </c>
-      <c r="F47">
-        <v>6090310</v>
-      </c>
-      <c r="G47">
-        <v>34</v>
-      </c>
-      <c r="H47">
-        <v>3282235</v>
-      </c>
-      <c r="I47">
-        <v>45772072</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>2057</v>
-      </c>
-      <c r="C48">
-        <v>45772072</v>
-      </c>
-      <c r="D48">
-        <v>1439</v>
-      </c>
-      <c r="E48">
-        <v>439</v>
-      </c>
-      <c r="F48">
-        <v>5661419</v>
-      </c>
-      <c r="G48">
-        <v>25</v>
-      </c>
-      <c r="H48">
-        <v>3095386</v>
-      </c>
-      <c r="I48">
-        <v>43207892</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>2058</v>
-      </c>
-      <c r="C49">
-        <v>43207892</v>
-      </c>
-      <c r="D49">
-        <v>1036</v>
-      </c>
-      <c r="E49">
-        <v>296</v>
-      </c>
-      <c r="F49">
-        <v>5429344</v>
-      </c>
-      <c r="G49">
-        <v>18</v>
-      </c>
-      <c r="H49">
-        <v>2918956</v>
-      </c>
-      <c r="I49">
-        <v>40698818</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>2059</v>
-      </c>
-      <c r="C50">
-        <v>40698818</v>
-      </c>
-      <c r="D50">
-        <v>740</v>
-      </c>
-      <c r="E50">
-        <v>201</v>
-      </c>
-      <c r="F50">
-        <v>5197407</v>
-      </c>
-      <c r="G50">
-        <v>13</v>
-      </c>
-      <c r="H50">
-        <v>2746493</v>
-      </c>
-      <c r="I50">
-        <v>38248832</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>2060</v>
-      </c>
-      <c r="C51">
-        <v>38248832</v>
-      </c>
-      <c r="D51">
-        <v>526</v>
-      </c>
-      <c r="E51">
-        <v>129</v>
-      </c>
-      <c r="F51">
-        <v>4966278</v>
-      </c>
-      <c r="G51">
-        <v>9</v>
-      </c>
-      <c r="H51">
-        <v>2578260</v>
-      </c>
-      <c r="I51">
-        <v>35861460</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>2061</v>
-      </c>
-      <c r="C52">
-        <v>35861460</v>
-      </c>
-      <c r="D52">
-        <v>369</v>
-      </c>
-      <c r="E52">
-        <v>80</v>
-      </c>
-      <c r="F52">
-        <v>4736310</v>
-      </c>
-      <c r="G52">
-        <v>6</v>
-      </c>
-      <c r="H52">
-        <v>2414497</v>
-      </c>
-      <c r="I52">
-        <v>33540090</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>2062</v>
-      </c>
-      <c r="C53">
-        <v>33540090</v>
-      </c>
-      <c r="D53">
-        <v>255</v>
-      </c>
-      <c r="E53">
-        <v>46</v>
-      </c>
-      <c r="F53">
-        <v>4507910</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>2255433</v>
-      </c>
-      <c r="I53">
-        <v>31287910</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>2063</v>
-      </c>
-      <c r="C54">
-        <v>31287910</v>
-      </c>
-      <c r="D54">
-        <v>172</v>
-      </c>
-      <c r="E54">
-        <v>26</v>
-      </c>
-      <c r="F54">
-        <v>4281455</v>
-      </c>
-      <c r="G54">
-        <v>3</v>
-      </c>
-      <c r="H54">
-        <v>2101283</v>
-      </c>
-      <c r="I54">
-        <v>29107933</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>2064</v>
-      </c>
-      <c r="C55">
-        <v>29107933</v>
-      </c>
-      <c r="D55">
-        <v>114</v>
-      </c>
-      <c r="E55">
-        <v>10</v>
-      </c>
-      <c r="F55">
-        <v>4057342</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>1952249</v>
-      </c>
-      <c r="I55">
-        <v>27002962</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>2065</v>
-      </c>
-      <c r="C56">
-        <v>27002962</v>
-      </c>
-      <c r="D56">
-        <v>70</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <v>3835943</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1808522</v>
-      </c>
-      <c r="I56">
-        <v>24975614</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>2066</v>
-      </c>
-      <c r="C57">
-        <v>24975614</v>
-      </c>
-      <c r="D57">
-        <v>39</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>3617634</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1670275</v>
-      </c>
-      <c r="I57">
-        <v>23028295</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>2067</v>
-      </c>
-      <c r="C58">
-        <v>23028295</v>
-      </c>
-      <c r="D58">
-        <v>19</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>3402812</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1537665</v>
-      </c>
-      <c r="I58">
-        <v>21163168</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>2068</v>
-      </c>
-      <c r="C59">
-        <v>21163168</v>
-      </c>
-      <c r="D59">
-        <v>8</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>3191883</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1410839</v>
-      </c>
-      <c r="I59">
-        <v>19382132</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>2069</v>
-      </c>
-      <c r="C60">
-        <v>19382132</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>2985286</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>1289910</v>
-      </c>
-      <c r="I60">
-        <v>17686759</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>2070</v>
-      </c>
-      <c r="C61">
-        <v>17686759</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>2783505</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>1174982</v>
-      </c>
-      <c r="I61">
-        <v>16078237</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>2071</v>
-      </c>
-      <c r="C62">
-        <v>16078237</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>2587034</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>1066119</v>
-      </c>
-      <c r="I62">
-        <v>14557322</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2072</v>
-      </c>
-      <c r="C63">
-        <v>14557322</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>2396330</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>963359</v>
-      </c>
-      <c r="I63">
-        <v>13124351</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>2073</v>
-      </c>
-      <c r="C64">
-        <v>13124351</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>2211827</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>866712</v>
-      </c>
-      <c r="I64">
-        <v>11779236</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>2074</v>
-      </c>
-      <c r="C65">
-        <v>11779236</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>2033902</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>776157</v>
-      </c>
-      <c r="I65">
-        <v>10521491</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>2075</v>
-      </c>
-      <c r="C66">
-        <v>10521491</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1862866</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>691649</v>
-      </c>
-      <c r="I66">
-        <v>9350274</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>2076</v>
-      </c>
-      <c r="C67">
-        <v>9350274</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1698979</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>613120</v>
-      </c>
-      <c r="I67">
-        <v>8264415</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2077</v>
-      </c>
-      <c r="C68">
-        <v>8264415</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1542465</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>540475</v>
-      </c>
-      <c r="I68">
-        <v>7262425</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>2078</v>
-      </c>
-      <c r="C69">
-        <v>7262425</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1393523</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>473599</v>
-      </c>
-      <c r="I69">
-        <v>6342501</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>2079</v>
-      </c>
-      <c r="C70">
-        <v>6342501</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1252331</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>412360</v>
-      </c>
-      <c r="I70">
-        <v>5502530</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>2080</v>
-      </c>
-      <c r="C71">
-        <v>5502530</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1119051</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>356596</v>
-      </c>
-      <c r="I71">
-        <v>4740075</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>2081</v>
-      </c>
-      <c r="C72">
-        <v>4740075</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>993828</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>306130</v>
-      </c>
-      <c r="I72">
-        <v>4052377</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>2082</v>
-      </c>
-      <c r="C73">
-        <v>4052377</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>876785</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>260755</v>
-      </c>
-      <c r="I73">
-        <v>3436347</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>2083</v>
-      </c>
-      <c r="C74">
-        <v>3436347</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>768011</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>220248</v>
-      </c>
-      <c r="I74">
-        <v>2888584</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>2084</v>
-      </c>
-      <c r="C75">
-        <v>2888584</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>667549</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>184365</v>
-      </c>
-      <c r="I75">
-        <v>2405400</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>2085</v>
-      </c>
-      <c r="C76">
-        <v>2405400</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>575388</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>152835</v>
-      </c>
-      <c r="I76">
-        <v>1982847</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>2086</v>
-      </c>
-      <c r="C77">
-        <v>1982847</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>491460</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>125380</v>
-      </c>
-      <c r="I77">
-        <v>1616767</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>2087</v>
-      </c>
-      <c r="C78">
-        <v>1616767</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>415631</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>101704</v>
-      </c>
-      <c r="I78">
-        <v>1302840</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>2088</v>
-      </c>
-      <c r="C79">
-        <v>1302840</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>347713</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>81505</v>
-      </c>
-      <c r="I79">
-        <v>1036632</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>2089</v>
-      </c>
-      <c r="C80">
-        <v>1036632</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>287463</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>64468</v>
-      </c>
-      <c r="I80">
-        <v>813637</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>2090</v>
-      </c>
-      <c r="C81">
-        <v>813637</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>234591</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>50284</v>
-      </c>
-      <c r="I81">
-        <v>629330</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>2091</v>
-      </c>
-      <c r="C82">
-        <v>629330</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>188761</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>38635</v>
-      </c>
-      <c r="I82">
-        <v>479204</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>2092</v>
-      </c>
-      <c r="C83">
-        <v>479204</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>149584</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>29211</v>
-      </c>
-      <c r="I83">
-        <v>358831</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>2093</v>
-      </c>
-      <c r="C84">
-        <v>358831</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>116604</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>21710</v>
-      </c>
-      <c r="I84">
-        <v>263937</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>2094</v>
-      </c>
-      <c r="C85">
-        <v>263937</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>89306</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>15845</v>
-      </c>
-      <c r="I85">
-        <v>190476</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>2095</v>
-      </c>
-      <c r="C86">
-        <v>190476</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>67114</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>11340</v>
-      </c>
-      <c r="I86">
-        <v>134702</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>2096</v>
-      </c>
-      <c r="C87">
-        <v>134702</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>49422</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>7950</v>
-      </c>
-      <c r="I87">
-        <v>93230</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>2097</v>
-      </c>
-      <c r="C88">
-        <v>93230</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>35612</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>5453</v>
-      </c>
-      <c r="I88">
-        <v>63071</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>2098</v>
-      </c>
-      <c r="C89">
-        <v>63071</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>25073</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>3654</v>
-      </c>
-      <c r="I89">
-        <v>41652</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>2099</v>
-      </c>
-      <c r="C90">
-        <v>41652</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>17223</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>2390</v>
-      </c>
-      <c r="I90">
-        <v>26819</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>2100</v>
-      </c>
-      <c r="C91">
-        <v>26819</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>11524</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>1523</v>
-      </c>
-      <c r="I91">
-        <v>16818</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>2101</v>
-      </c>
-      <c r="C92">
-        <v>16818</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>7501</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>946</v>
-      </c>
-      <c r="I92">
-        <v>10263</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>2102</v>
-      </c>
-      <c r="C93">
-        <v>10263</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>4744</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>571</v>
-      </c>
-      <c r="I93">
-        <v>6090</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>2103</v>
-      </c>
-      <c r="C94">
-        <v>6090</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>2912</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>336</v>
-      </c>
-      <c r="I94">
-        <v>3514</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>2104</v>
-      </c>
-      <c r="C95">
-        <v>3514</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>1733</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>191</v>
-      </c>
-      <c r="I95">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>2105</v>
-      </c>
-      <c r="C96">
-        <v>1972</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1001</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>107</v>
-      </c>
-      <c r="I96">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>2106</v>
-      </c>
-      <c r="C97">
-        <v>1078</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>561</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>58</v>
-      </c>
-      <c r="I97">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>2107</v>
-      </c>
-      <c r="C98">
-        <v>575</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>306</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>30</v>
-      </c>
-      <c r="I98">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>2108</v>
-      </c>
-      <c r="C99">
-        <v>299</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>163</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>16</v>
-      </c>
-      <c r="I99">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>2109</v>
-      </c>
-      <c r="C100">
-        <v>152</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>85</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>8</v>
-      </c>
-      <c r="I100">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>2110</v>
-      </c>
-      <c r="C101">
-        <v>75</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>43</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>4</v>
-      </c>
-      <c r="I101">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>2111</v>
-      </c>
-      <c r="C102">
-        <v>36</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>21</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>2112</v>
-      </c>
-      <c r="C103">
-        <v>16</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>10</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>2113</v>
-      </c>
-      <c r="C104">
-        <v>7</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>5</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>2114</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>2115</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>2116</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
+++ b/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RSF_NYCTRS\Inputs_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0276A6B-4338-463A-A634-ADBF588A7746}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769B71D-11AB-4979-A801-1B409B2397AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
   <si>
     <t>Notes</t>
   </si>
@@ -385,7 +385,7 @@
     <t>cp</t>
   </si>
   <si>
-    <t>K10</t>
+    <t>K11</t>
   </si>
 </sst>
 </file>
@@ -7643,7 +7643,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7766,7 +7766,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="81">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I8" s="59">
         <v>18</v>
@@ -7792,7 +7792,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="81">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="I9" s="59">
         <v>12</v>
@@ -7818,7 +7818,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="81">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="59">
         <v>13</v>
@@ -7834,12 +7834,27 @@
       <c r="B11" s="52"/>
       <c r="C11" s="56"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
+      <c r="E11" s="77">
+        <v>2015</v>
+      </c>
+      <c r="F11" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="G11" s="59">
+        <v>14</v>
+      </c>
+      <c r="H11" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="59">
+        <v>14</v>
+      </c>
+      <c r="J11" s="80">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>

--- a/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
+++ b/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RSF_NYCTRS\Inputs_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769B71D-11AB-4979-A801-1B409B2397AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B866F50-14C8-4D86-88DF-355AC6D47F05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="44" r:id="rId1"/>
@@ -379,13 +379,13 @@
     <t>K8</t>
   </si>
   <si>
-    <t>D10</t>
-  </si>
-  <si>
     <t>cp</t>
   </si>
   <si>
     <t>K11</t>
+  </si>
+  <si>
+    <t>D11</t>
   </si>
 </sst>
 </file>
@@ -7642,8 +7642,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7680,7 +7680,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="30"/>
     </row>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -8156,8 +8156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8189,7 +8189,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8308,6 +8308,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
+++ b/Inputs_data/NYCTRS_PlanInfo_AV2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RSF_NYCTRS\Inputs_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B866F50-14C8-4D86-88DF-355AC6D47F05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AF93A3-3346-4E9D-804D-9642B707D249}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="44" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="detective" sheetId="40" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>Notes</t>
   </si>
@@ -382,10 +383,16 @@
     <t>cp</t>
   </si>
   <si>
-    <t>K11</t>
-  </si>
-  <si>
     <t>D11</t>
+  </si>
+  <si>
+    <t>amort.type</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>L11</t>
   </si>
 </sst>
 </file>
@@ -4601,7 +4608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -7642,8 +7649,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7658,6 +7665,7 @@
     <col min="8" max="8" width="32.28515625" style="33" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="15" width="27.28515625" customWidth="1"/>
     <col min="16" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -7680,7 +7688,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F3" s="30"/>
     </row>
@@ -7750,6 +7758,9 @@
       <c r="K7" s="72" t="s">
         <v>48</v>
       </c>
+      <c r="L7" s="72" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="75" t="s">
@@ -7776,6 +7787,9 @@
       </c>
       <c r="K8" s="60" t="s">
         <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7803,6 +7817,9 @@
       <c r="K9" s="60" t="s">
         <v>65</v>
       </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="52"/>
@@ -7829,6 +7846,9 @@
       <c r="K10" s="60" t="s">
         <v>65</v>
       </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="52"/>
@@ -7854,6 +7874,9 @@
       </c>
       <c r="K11" s="60" t="s">
         <v>65</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8156,7 +8179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -8189,7 +8212,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
